--- a/relatorio2024.xlsx
+++ b/relatorio2024.xlsx
@@ -8,7 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="01" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="geral" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Incorporações" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Baixas " sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t xml:space="preserve">Dado</t>
   </si>
@@ -58,7 +60,10 @@
     <t xml:space="preserve">Dados Zen </t>
   </si>
   <si>
-    <t xml:space="preserve">Dos Chamados via Whatapp, e e-mails </t>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos Chamados via Whatapp e e-mails </t>
   </si>
   <si>
     <t xml:space="preserve">atendidos</t>
@@ -67,10 +72,10 @@
     <t xml:space="preserve">Quantidade de Itens reavaliados</t>
   </si>
   <si>
-    <t xml:space="preserve">ver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volta redonda </t>
+    <t xml:space="preserve">Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foram apenas os que fiz na planilha?</t>
   </si>
   <si>
     <t xml:space="preserve">Itens por unidade</t>
@@ -85,10 +90,16 @@
     <t xml:space="preserve">Capacitação do novo sistema do Patrimonio, Criação do </t>
   </si>
   <si>
+    <t xml:space="preserve">ok</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantidade de unidades em conformidade com a documentação</t>
   </si>
   <si>
-    <t xml:space="preserve">patricia</t>
+    <t xml:space="preserve">Zen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planilha Conformidade</t>
   </si>
   <si>
     <t xml:space="preserve">Quantidade de visitas às unidades</t>
@@ -112,19 +123,121 @@
     <t xml:space="preserve">vitor</t>
   </si>
   <si>
+    <t xml:space="preserve">planilha Incorporacoes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantidade de Baixas no Ano (t0das) </t>
   </si>
   <si>
     <t xml:space="preserve">Ju</t>
   </si>
   <si>
-    <t xml:space="preserve">Maria mercedes – 78732022,</t>
+    <t xml:space="preserve">planilha baixas</t>
   </si>
   <si>
     <t xml:space="preserve">Quantidade de itens Tombados</t>
   </si>
   <si>
-    <t xml:space="preserve">Ate 10/112</t>
+    <t xml:space="preserve">Ate 10/12/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade Bens Incorporados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor da Incorporação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997 a 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26005/007873/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Mercedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26005/008113/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26005/003396/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joao Barcellos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26005/006979/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26005/007152/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amaury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26005/005534/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETE Paracambi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26005/002055/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETE Hebert Vignoli Muniz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26005/001537/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Antonio de Pádua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26005/001637/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISERJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26005/000119/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETE Oscar Tenório</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26005/004877/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visconde de Mauá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Pedro da Aldeia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JU</t>
   </si>
 </sst>
 </file>
@@ -136,7 +249,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -158,8 +271,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,13 +287,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDE59"/>
         <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF0041"/>
+        <bgColor rgb="FF800080"/>
       </patternFill>
     </fill>
   </fills>
@@ -213,53 +349,85 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -285,9 +453,9 @@
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FFBF0041"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -296,7 +464,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -320,7 +488,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -339,43 +507,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="48.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="35.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="48.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="B1" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="3" t="n">
         <v>2024</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -425,7 +593,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="6"/>
@@ -433,12 +601,15 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
+      <c r="G5" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="n">
         <v>0.1</v>
       </c>
       <c r="C6" s="6" t="n">
@@ -448,138 +619,186 @@
         <v>100</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A10" s="11"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="n">
+      <c r="B14" s="12"/>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="22.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="22.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="34.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C19" s="6" t="n">
         <v>15079</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="6" t="n">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="6" t="n">
         <v>22078885.48</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -591,4 +810,295 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.39"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="n">
+        <v>653</v>
+      </c>
+      <c r="B2" s="16" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C2" s="16" t="n">
+        <v>715726.43</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="n">
+        <v>928</v>
+      </c>
+      <c r="B3" s="16" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="16" t="n">
+        <v>4177418.4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="n">
+        <v>2233</v>
+      </c>
+      <c r="B4" s="16" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="16" t="n">
+        <v>20556006.02</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="n">
+        <v>87</v>
+      </c>
+      <c r="B5" s="16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>385565.89</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="n">
+        <v>44</v>
+      </c>
+      <c r="B6" s="16" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>91227.28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="n">
+        <v>5787</v>
+      </c>
+      <c r="B7" s="16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>5798421.88</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="n">
+        <v>2937</v>
+      </c>
+      <c r="B8" s="16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>2278686.67</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="n">
+        <v>15074</v>
+      </c>
+      <c r="B9" s="16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="16" t="n">
+        <v>227055300.61</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="n">
+        <v>139318</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>139205105.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19"/>
+      <c r="B13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/relatorio2024.xlsx
+++ b/relatorio2024.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Incorporações" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Incorporacoes" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Baixas " sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t xml:space="preserve">Dado</t>
   </si>
@@ -36,6 +36,12 @@
     <t xml:space="preserve">Valor Contábil</t>
   </si>
   <si>
+    <t xml:space="preserve">Controle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relatorio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Imoveis Trados de Maio a dezembro</t>
   </si>
   <si>
@@ -48,6 +54,9 @@
     <t xml:space="preserve">erivelton</t>
   </si>
   <si>
+    <t xml:space="preserve">Ok – via e-mail, pegar a informacao de do andamento por mês</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantidade de Sei`s tratados em 2024</t>
   </si>
   <si>
@@ -141,7 +150,7 @@
     <t xml:space="preserve">Ate 10/12/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantidade Bens Incorporados </t>
+    <t xml:space="preserve">Bens Incorporados</t>
   </si>
   <si>
     <t xml:space="preserve">Ano</t>
@@ -244,12 +253,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -273,11 +283,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF00A933"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,14 +309,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDE59"/>
-        <bgColor rgb="FFFFCC00"/>
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE59"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -349,7 +378,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -374,11 +403,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -386,7 +423,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -394,7 +431,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -406,11 +443,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -418,15 +459,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -457,7 +502,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -485,12 +530,12 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -507,10 +552,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -541,264 +586,279 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="n">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="22.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="34.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="C19" s="8" t="n">
+        <v>15079</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>22078885.48</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="22.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="34.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>15079</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>22078885.48</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>22</v>
+      <c r="H19" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +880,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -830,112 +890,112 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>41</v>
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="n">
+      <c r="A2" s="19" t="n">
         <v>653</v>
       </c>
-      <c r="B2" s="16" t="n">
+      <c r="B2" s="19" t="n">
         <v>2017</v>
       </c>
-      <c r="C2" s="16" t="n">
+      <c r="C2" s="20" t="n">
         <v>715726.43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="n">
+      <c r="A3" s="19" t="n">
         <v>928</v>
       </c>
-      <c r="B3" s="16" t="n">
+      <c r="B3" s="19" t="n">
         <v>2018</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="20" t="n">
         <v>4177418.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+      <c r="A4" s="19" t="n">
         <v>2233</v>
       </c>
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="19" t="n">
         <v>2019</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="20" t="n">
         <v>20556006.02</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="19" t="n">
         <v>87</v>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="19" t="n">
         <v>2020</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="20" t="n">
         <v>385565.89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
+      <c r="A6" s="19" t="n">
         <v>44</v>
       </c>
-      <c r="B6" s="16" t="n">
+      <c r="B6" s="19" t="n">
         <v>2021</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="20" t="n">
         <v>91227.28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="19" t="n">
         <v>5787</v>
       </c>
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="19" t="n">
         <v>2022</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="20" t="n">
         <v>5798421.88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="19" t="n">
         <v>2937</v>
       </c>
-      <c r="B8" s="16" t="n">
+      <c r="B8" s="19" t="n">
         <v>2023</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="20" t="n">
         <v>2278686.67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="19" t="n">
         <v>15074</v>
       </c>
-      <c r="B9" s="16" t="n">
+      <c r="B9" s="19" t="n">
         <v>2024</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="20" t="n">
         <v>227055300.61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="19" t="n">
         <v>139318</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="16" t="n">
+      <c r="B10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="20" t="n">
         <v>139205105.56</v>
       </c>
     </row>
@@ -968,128 +1028,128 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>46</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>49</v>
+      <c r="A3" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>54</v>
+      <c r="A6" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>56</v>
+      <c r="A7" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>59</v>
+      <c r="A8" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>63</v>
+      <c r="A10" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>65</v>
+      <c r="A11" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>67</v>
+      <c r="A12" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
